--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Smith.Fall.111919.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Smith.Fall.111919.xlsx_with_dialog_acts.xlsx
@@ -661,12 +661,12 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -737,12 +737,12 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1167,12 +1167,12 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1437,12 +1437,12 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1513,12 +1513,12 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1943,12 +1943,12 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2019,12 +2019,12 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2133,12 +2133,12 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2209,12 +2209,12 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2247,12 +2247,12 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2517,12 +2517,12 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2593,12 +2593,12 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2783,12 +2783,12 @@
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2939,12 +2939,12 @@
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2977,12 +2977,12 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3285,12 +3285,12 @@
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3513,12 +3513,12 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3825,12 +3825,12 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4133,12 +4133,12 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4247,12 +4247,12 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4665,12 +4665,12 @@
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4931,12 +4931,12 @@
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5239,12 +5239,12 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5277,12 +5277,12 @@
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5463,12 +5463,12 @@
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5539,12 +5539,12 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5999,12 +5999,12 @@
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6113,12 +6113,12 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6193,12 +6193,12 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6307,12 +6307,12 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6573,12 +6573,12 @@
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6725,12 +6725,12 @@
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6919,12 +6919,12 @@
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7071,12 +7071,12 @@
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7497,12 +7497,12 @@
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7653,12 +7653,12 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7691,12 +7691,12 @@
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7805,12 +7805,12 @@
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7843,12 +7843,12 @@
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8341,12 +8341,12 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8535,12 +8535,12 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8573,12 +8573,12 @@
       <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8691,12 +8691,12 @@
       <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -8767,12 +8767,12 @@
       <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9033,12 +9033,12 @@
       <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9109,12 +9109,12 @@
       <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9607,12 +9607,12 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9763,12 +9763,12 @@
       <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10105,12 +10105,12 @@
       <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10143,12 +10143,12 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10219,12 +10219,12 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10257,12 +10257,12 @@
       <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10295,12 +10295,12 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10333,12 +10333,12 @@
       <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10371,12 +10371,12 @@
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10409,12 +10409,12 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10451,12 +10451,12 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10603,12 +10603,12 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10641,12 +10641,12 @@
       <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11059,12 +11059,12 @@
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11097,12 +11097,12 @@
       <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11135,12 +11135,12 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11173,12 +11173,12 @@
       <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11401,12 +11401,12 @@
       <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11553,12 +11553,12 @@
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11629,12 +11629,12 @@
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11667,12 +11667,12 @@
       <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13427,12 +13427,12 @@
       <c r="H339" t="inlineStr"/>
       <c r="I339" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13465,12 +13465,12 @@
       <c r="H340" t="inlineStr"/>
       <c r="I340" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13541,12 +13541,12 @@
       <c r="H342" t="inlineStr"/>
       <c r="I342" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -14549,12 +14549,12 @@
       </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15009,12 +15009,12 @@
       </c>
       <c r="I380" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15085,12 +15085,12 @@
       <c r="H382" t="inlineStr"/>
       <c r="I382" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15313,12 +15313,12 @@
       <c r="H388" t="inlineStr"/>
       <c r="I388" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15465,12 +15465,12 @@
       <c r="H392" t="inlineStr"/>
       <c r="I392" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15503,12 +15503,12 @@
       <c r="H393" t="inlineStr"/>
       <c r="I393" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -15617,12 +15617,12 @@
       </c>
       <c r="I396" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J396" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15697,12 +15697,12 @@
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15735,12 +15735,12 @@
       <c r="H399" t="inlineStr"/>
       <c r="I399" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J399" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15853,12 +15853,12 @@
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J402" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15891,12 +15891,12 @@
       <c r="H403" t="inlineStr"/>
       <c r="I403" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16005,12 +16005,12 @@
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16697,12 +16697,12 @@
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16735,12 +16735,12 @@
       <c r="H425" t="inlineStr"/>
       <c r="I425" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16811,12 +16811,12 @@
       <c r="H427" t="inlineStr"/>
       <c r="I427" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -16887,12 +16887,12 @@
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17119,12 +17119,12 @@
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -17313,12 +17313,12 @@
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17389,12 +17389,12 @@
       <c r="H442" t="inlineStr"/>
       <c r="I442" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J442" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17655,12 +17655,12 @@
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J449" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17769,12 +17769,12 @@
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J452" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18077,12 +18077,12 @@
       <c r="H460" t="inlineStr"/>
       <c r="I460" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -18305,12 +18305,12 @@
       <c r="H466" t="inlineStr"/>
       <c r="I466" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18499,12 +18499,12 @@
       <c r="H471" t="inlineStr"/>
       <c r="I471" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18803,12 +18803,12 @@
       <c r="H479" t="inlineStr"/>
       <c r="I479" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -18917,12 +18917,12 @@
       </c>
       <c r="I482" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J482" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18955,12 +18955,12 @@
       <c r="H483" t="inlineStr"/>
       <c r="I483" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J483" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19069,12 +19069,12 @@
       <c r="H486" t="inlineStr"/>
       <c r="I486" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J486" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19111,12 +19111,12 @@
       </c>
       <c r="I487" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J487" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19149,12 +19149,12 @@
       <c r="H488" t="inlineStr"/>
       <c r="I488" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J488" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19267,12 +19267,12 @@
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19305,12 +19305,12 @@
       <c r="H492" t="inlineStr"/>
       <c r="I492" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J492" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19537,12 +19537,12 @@
       <c r="H498" t="inlineStr"/>
       <c r="I498" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J498" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19613,12 +19613,12 @@
       <c r="H500" t="inlineStr"/>
       <c r="I500" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19921,12 +19921,12 @@
       <c r="H508" t="inlineStr"/>
       <c r="I508" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J508" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20111,12 +20111,12 @@
       <c r="H513" t="inlineStr"/>
       <c r="I513" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J513" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20727,12 +20727,12 @@
       </c>
       <c r="I529" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J529" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21457,12 +21457,12 @@
       <c r="H548" t="inlineStr"/>
       <c r="I548" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J548" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22373,12 +22373,12 @@
       <c r="H572" t="inlineStr"/>
       <c r="I572" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J572" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22719,12 +22719,12 @@
       </c>
       <c r="I581" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J581" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23403,12 +23403,12 @@
       <c r="H599" t="inlineStr"/>
       <c r="I599" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J599" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -23593,12 +23593,12 @@
       <c r="H604" t="inlineStr"/>
       <c r="I604" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J604" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -24315,12 +24315,12 @@
       <c r="H623" t="inlineStr"/>
       <c r="I623" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J623" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24589,12 +24589,12 @@
       </c>
       <c r="I630" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J630" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -24897,12 +24897,12 @@
       </c>
       <c r="I638" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J638" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -25057,12 +25057,12 @@
       </c>
       <c r="I642" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J642" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -25175,12 +25175,12 @@
       </c>
       <c r="I645" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J645" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -25213,12 +25213,12 @@
       <c r="H646" t="inlineStr"/>
       <c r="I646" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J646" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -25365,12 +25365,12 @@
       </c>
       <c r="I650" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J650" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25555,12 +25555,12 @@
       <c r="H655" t="inlineStr"/>
       <c r="I655" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J655" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25593,12 +25593,12 @@
       <c r="H656" t="inlineStr"/>
       <c r="I656" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J656" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -26319,12 +26319,12 @@
       </c>
       <c r="I675" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J675" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26969,12 +26969,12 @@
       <c r="H692" t="inlineStr"/>
       <c r="I692" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J692" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -27007,12 +27007,12 @@
       <c r="H693" t="inlineStr"/>
       <c r="I693" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J693" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27083,12 +27083,12 @@
       <c r="H695" t="inlineStr"/>
       <c r="I695" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J695" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27197,12 +27197,12 @@
       <c r="H698" t="inlineStr"/>
       <c r="I698" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J698" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
